--- a/Excel/xqf131/xqf131CooperativeAntColony2exp4.xlsx
+++ b/Excel/xqf131/xqf131CooperativeAntColony2exp4.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.067378479999661</v>
+        <v>0.2274963279996882</v>
       </c>
       <c r="D2" t="n">
-        <v>1550</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.77931819899959</v>
+        <v>0.5475282440002047</v>
       </c>
       <c r="D3" t="n">
-        <v>1550</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.277579253999647</v>
+        <v>0.8541473200002656</v>
       </c>
       <c r="D4" t="n">
-        <v>1549</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.63029876599921</v>
+        <v>1.062354910000067</v>
       </c>
       <c r="D5" t="n">
-        <v>1536</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.59574523899892</v>
+        <v>1.270719979000205</v>
       </c>
       <c r="D6" t="n">
-        <v>1522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39362409199884</v>
+        <v>1.504385559000184</v>
       </c>
       <c r="D7" t="n">
-        <v>1522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17.65929534899897</v>
+        <v>1.756824500000221</v>
       </c>
       <c r="D8" t="n">
-        <v>1522</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>21.09088561899898</v>
+        <v>2.020271785000659</v>
       </c>
       <c r="D9" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>24.94918917599898</v>
+        <v>2.268484047001039</v>
       </c>
       <c r="D10" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>28.18131360799907</v>
+        <v>2.544617801000641</v>
       </c>
       <c r="D11" t="n">
-        <v>1521</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>31.65154359899907</v>
+        <v>2.820130216000507</v>
       </c>
       <c r="D12" t="n">
-        <v>1521</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>36.41155650299879</v>
+        <v>3.175956232000317</v>
       </c>
       <c r="D13" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>40.29388667999865</v>
+        <v>3.500480961000903</v>
       </c>
       <c r="D14" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>43.83765952699832</v>
+        <v>3.786990848000642</v>
       </c>
       <c r="D15" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>47.28818613199837</v>
+        <v>4.092493525000464</v>
       </c>
       <c r="D16" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>50.77650262299812</v>
+        <v>4.403762184000698</v>
       </c>
       <c r="D17" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>54.65258697699801</v>
+        <v>4.724637746000553</v>
       </c>
       <c r="D18" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>58.22236228899828</v>
+        <v>5.028837802999988</v>
       </c>
       <c r="D19" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>60.38708809799846</v>
+        <v>5.368638730999919</v>
       </c>
       <c r="D20" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>63.21447215499848</v>
+        <v>5.687533772999814</v>
       </c>
       <c r="D21" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>66.01147650899838</v>
+        <v>5.991674056999727</v>
       </c>
       <c r="D22" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>68.91662919799819</v>
+        <v>6.321491685999717</v>
       </c>
       <c r="D23" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>72.60625254099796</v>
+        <v>6.55552215499938</v>
       </c>
       <c r="D24" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>76.52118989699784</v>
+        <v>6.741548909999437</v>
       </c>
       <c r="D25" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>81.20055702699801</v>
+        <v>6.948015677999138</v>
       </c>
       <c r="D26" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>83.9413924729979</v>
+        <v>7.24047933699876</v>
       </c>
       <c r="D27" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>86.45477421699798</v>
+        <v>7.481929506998313</v>
       </c>
       <c r="D28" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>89.26792204599815</v>
+        <v>7.733698306998122</v>
       </c>
       <c r="D29" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>91.92560400399816</v>
+        <v>8.042753850997542</v>
       </c>
       <c r="D30" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>95.49566365399824</v>
+        <v>8.303941381997902</v>
       </c>
       <c r="D31" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>98.41563998299807</v>
+        <v>8.520918834998156</v>
       </c>
       <c r="D32" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>101.6446115869981</v>
+        <v>8.774327074997927</v>
       </c>
       <c r="D33" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>104.820628657998</v>
+        <v>9.049664117997963</v>
       </c>
       <c r="D34" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>108.150472038998</v>
+        <v>9.344805884998095</v>
       </c>
       <c r="D35" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>111.5866411579982</v>
+        <v>9.678324532997976</v>
       </c>
       <c r="D36" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>115.5059350969982</v>
+        <v>9.908052377997592</v>
       </c>
       <c r="D37" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>119.6659945199981</v>
+        <v>10.20188857299763</v>
       </c>
       <c r="D38" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>123.1738506959982</v>
+        <v>10.49484493499767</v>
       </c>
       <c r="D39" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>127.3738218449985</v>
+        <v>10.81626566799787</v>
       </c>
       <c r="D40" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>131.1183992929987</v>
+        <v>11.05059762799829</v>
       </c>
       <c r="D41" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>134.9961870329989</v>
+        <v>11.30640259899792</v>
       </c>
       <c r="D42" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>139.1303659149989</v>
+        <v>11.51800037899739</v>
       </c>
       <c r="D43" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>143.4459716019992</v>
+        <v>11.83678048599722</v>
       </c>
       <c r="D44" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>145.9720119089993</v>
+        <v>12.11679198499678</v>
       </c>
       <c r="D45" t="n">
-        <v>1511</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>149.7272077069993</v>
+        <v>12.36082450399681</v>
       </c>
       <c r="D46" t="n">
-        <v>1507</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>152.6963613139992</v>
+        <v>12.67470674799733</v>
       </c>
       <c r="D47" t="n">
-        <v>1507</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>155.0053023559994</v>
+        <v>12.9694406899971</v>
       </c>
       <c r="D48" t="n">
-        <v>1507</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>159.1057511949994</v>
+        <v>13.26804629699745</v>
       </c>
       <c r="D49" t="n">
-        <v>1500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>162.3445557209993</v>
+        <v>13.62210772399703</v>
       </c>
       <c r="D50" t="n">
-        <v>1500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>166.2899664109996</v>
+        <v>13.91731132999757</v>
       </c>
       <c r="D51" t="n">
-        <v>1500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>170.3705363429999</v>
+        <v>14.26000211799783</v>
       </c>
       <c r="D52" t="n">
-        <v>1500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>173.6559998759999</v>
+        <v>14.57003629799783</v>
       </c>
       <c r="D53" t="n">
-        <v>1500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>176.7373232669997</v>
+        <v>14.84473228299794</v>
       </c>
       <c r="D54" t="n">
-        <v>1500</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>179.4634527190001</v>
+        <v>15.17503668199788</v>
       </c>
       <c r="D55" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>181.7117088730001</v>
+        <v>15.48234004699771</v>
       </c>
       <c r="D56" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>184.0031949550003</v>
+        <v>15.7957929339982</v>
       </c>
       <c r="D57" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>186.8130984040004</v>
+        <v>16.10808260999875</v>
       </c>
       <c r="D58" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>189.5928915130003</v>
+        <v>16.46697893999863</v>
       </c>
       <c r="D59" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>192.7984426040002</v>
+        <v>16.83699686099862</v>
       </c>
       <c r="D60" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>196.3009216430005</v>
+        <v>17.07312030799858</v>
       </c>
       <c r="D61" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>199.4503962360004</v>
+        <v>17.23187930899894</v>
       </c>
       <c r="D62" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>203.2189078180004</v>
+        <v>17.51231569499942</v>
       </c>
       <c r="D63" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>206.7916935980002</v>
+        <v>17.71147597199979</v>
       </c>
       <c r="D64" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>211.070065761</v>
+        <v>17.95641288899969</v>
       </c>
       <c r="D65" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>215.4775439600003</v>
+        <v>18.28274292900005</v>
       </c>
       <c r="D66" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>219.6914119980001</v>
+        <v>18.52668928200001</v>
       </c>
       <c r="D67" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>223.4150885890003</v>
+        <v>18.7658477190007</v>
       </c>
       <c r="D68" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>228.106089502</v>
+        <v>19.1183430250012</v>
       </c>
       <c r="D69" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>232.1988580440002</v>
+        <v>19.36473795800066</v>
       </c>
       <c r="D70" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>236.8308253660002</v>
+        <v>19.58477625100113</v>
       </c>
       <c r="D71" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>241.0279310000001</v>
+        <v>19.87530626200078</v>
       </c>
       <c r="D72" t="n">
-        <v>1493</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>245.1757673890002</v>
+        <v>20.18770476500049</v>
       </c>
       <c r="D73" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>248.9051956960002</v>
+        <v>20.49980073100051</v>
       </c>
       <c r="D74" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>253.0172001380001</v>
+        <v>20.78139497200118</v>
       </c>
       <c r="D75" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>257.0937935729999</v>
+        <v>21.05465087000084</v>
       </c>
       <c r="D76" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>261.6537910949996</v>
+        <v>21.25198954100051</v>
       </c>
       <c r="D77" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>266.1219927459993</v>
+        <v>21.47148662000018</v>
       </c>
       <c r="D78" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>270.3505841849992</v>
+        <v>21.6553870759999</v>
       </c>
       <c r="D79" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>274.7747907609992</v>
+        <v>21.86465070600025</v>
       </c>
       <c r="D80" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>276.9973555619995</v>
+        <v>22.14389945899984</v>
       </c>
       <c r="D81" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>279.5097367949993</v>
+        <v>22.52789863499947</v>
       </c>
       <c r="D82" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>282.2227878449989</v>
+        <v>22.82014046499989</v>
       </c>
       <c r="D83" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>285.1403063679991</v>
+        <v>23.13692630199967</v>
       </c>
       <c r="D84" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>288.139409258999</v>
+        <v>23.38717048299986</v>
       </c>
       <c r="D85" t="n">
-        <v>1493</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>291.581493540999</v>
+        <v>23.62153157699959</v>
       </c>
       <c r="D86" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>295.0976359109991</v>
+        <v>23.94682414599993</v>
       </c>
       <c r="D87" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>299.0314874879991</v>
+        <v>24.17202190399985</v>
       </c>
       <c r="D88" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>303.1511598039992</v>
+        <v>24.39043988999947</v>
       </c>
       <c r="D89" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>306.7176691109994</v>
+        <v>24.74575994799943</v>
       </c>
       <c r="D90" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>311.5372858289998</v>
+        <v>24.9842892380002</v>
       </c>
       <c r="D91" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>315.5521046169997</v>
+        <v>25.24329254199984</v>
       </c>
       <c r="D92" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>319.6396155839998</v>
+        <v>25.50504718399952</v>
       </c>
       <c r="D93" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>322.4932362209997</v>
+        <v>25.8335675569997</v>
       </c>
       <c r="D94" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>325.0165429999997</v>
+        <v>26.11443999999938</v>
       </c>
       <c r="D95" t="n">
-        <v>1485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>328.4113888959996</v>
+        <v>26.4565168149993</v>
       </c>
       <c r="D96" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>332.1499820659992</v>
+        <v>26.78317769599926</v>
       </c>
       <c r="D97" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>335.9596719019992</v>
+        <v>27.09551842899873</v>
       </c>
       <c r="D98" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>340.6137541579992</v>
+        <v>27.38815679399886</v>
       </c>
       <c r="D99" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>344.2359054529993</v>
+        <v>27.65712574599911</v>
       </c>
       <c r="D100" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>347.4972894179996</v>
+        <v>27.9645418859991</v>
       </c>
       <c r="D101" t="n">
-        <v>1483</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
